--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N2">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O2">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P2">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q2">
-        <v>87526.24849768306</v>
+        <v>90166.71881225976</v>
       </c>
       <c r="R2">
-        <v>87526.24849768306</v>
+        <v>360666.875249039</v>
       </c>
       <c r="S2">
-        <v>0.0979465735857163</v>
+        <v>0.09471769375923093</v>
       </c>
       <c r="T2">
-        <v>0.0979465735857163</v>
+        <v>0.05694128411231979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P3">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q3">
-        <v>17173.1625506751</v>
+        <v>17986.5601807106</v>
       </c>
       <c r="R3">
-        <v>17173.1625506751</v>
+        <v>107919.3610842636</v>
       </c>
       <c r="S3">
-        <v>0.01921769135933768</v>
+        <v>0.01889439386749519</v>
       </c>
       <c r="T3">
-        <v>0.01921769135933768</v>
+        <v>0.01703806870668658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N4">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O4">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P4">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q4">
-        <v>218.0027895784293</v>
+        <v>222.7022955784514</v>
       </c>
       <c r="R4">
-        <v>218.0027895784293</v>
+        <v>1336.213773470708</v>
       </c>
       <c r="S4">
-        <v>0.0002439568316686199</v>
+        <v>0.0002339427242106697</v>
       </c>
       <c r="T4">
-        <v>0.0002439568316686199</v>
+        <v>0.000210958458709172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N5">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O5">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P5">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q5">
-        <v>111.3756706518794</v>
+        <v>124.3470749242535</v>
       </c>
       <c r="R5">
-        <v>111.3756706518794</v>
+        <v>746.0824495455211</v>
       </c>
       <c r="S5">
-        <v>0.0001246353580600633</v>
+        <v>0.0001306232312507104</v>
       </c>
       <c r="T5">
-        <v>0.0001246353580600633</v>
+        <v>0.0001177898377871623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N6">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O6">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P6">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q6">
-        <v>57728.84633594862</v>
+        <v>58654.76030305053</v>
       </c>
       <c r="R6">
-        <v>57728.84633594862</v>
+        <v>351928.5618183032</v>
       </c>
       <c r="S6">
-        <v>0.06460167998417272</v>
+        <v>0.06161523561119146</v>
       </c>
       <c r="T6">
-        <v>0.06460167998417272</v>
+        <v>0.05556169862258372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N7">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O7">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P7">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q7">
-        <v>13124.67705224261</v>
+        <v>13130.31609118844</v>
       </c>
       <c r="R7">
-        <v>13124.67705224261</v>
+        <v>52521.26436475375</v>
       </c>
       <c r="S7">
-        <v>0.01468721862014082</v>
+        <v>0.01379304110063711</v>
       </c>
       <c r="T7">
-        <v>0.01468721862014082</v>
+        <v>0.00829194040641155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N8">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O8">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P8">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q8">
-        <v>55175.29640256985</v>
+        <v>63983.16643794621</v>
       </c>
       <c r="R8">
-        <v>55175.29640256985</v>
+        <v>383898.9986276773</v>
       </c>
       <c r="S8">
-        <v>0.06174412044349271</v>
+        <v>0.06721258180675063</v>
       </c>
       <c r="T8">
-        <v>0.06174412044349271</v>
+        <v>0.0606091200812373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P9">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q9">
-        <v>10825.71628701867</v>
+        <v>12763.43521033246</v>
       </c>
       <c r="R9">
-        <v>10825.71628701867</v>
+        <v>114870.9168929922</v>
       </c>
       <c r="S9">
-        <v>0.01211455803401229</v>
+        <v>0.01340764268116719</v>
       </c>
       <c r="T9">
-        <v>0.01211455803401229</v>
+        <v>0.01813556487695211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N10">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O10">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P10">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q10">
-        <v>137.4258435387564</v>
+        <v>158.0316798904222</v>
       </c>
       <c r="R10">
-        <v>137.4258435387564</v>
+        <v>1422.2851190138</v>
       </c>
       <c r="S10">
-        <v>0.0001537869008187213</v>
+        <v>0.0001660079956029475</v>
       </c>
       <c r="T10">
-        <v>0.0001537869008187213</v>
+        <v>0.0002245472113139537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N11">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O11">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P11">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q11">
-        <v>70.20963134750505</v>
+        <v>88.23787419298333</v>
       </c>
       <c r="R11">
-        <v>70.20963134750505</v>
+        <v>794.1408677368501</v>
       </c>
       <c r="S11">
-        <v>7.856834882379835E-05</v>
+        <v>9.269149477623182E-05</v>
       </c>
       <c r="T11">
-        <v>7.856834882379835E-05</v>
+        <v>0.0001253771939654407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N12">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O12">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P12">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q12">
-        <v>36391.43985074021</v>
+        <v>41621.97915465953</v>
       </c>
       <c r="R12">
-        <v>36391.43985074021</v>
+        <v>374597.8123919358</v>
       </c>
       <c r="S12">
-        <v>0.0407239759776183</v>
+        <v>0.04372276076090398</v>
       </c>
       <c r="T12">
-        <v>0.0407239759776183</v>
+        <v>0.0591406694849211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N13">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O13">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P13">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q13">
-        <v>8273.608877052033</v>
+        <v>9317.397936977208</v>
       </c>
       <c r="R13">
-        <v>8273.608877052033</v>
+        <v>55904.38762186325</v>
       </c>
       <c r="S13">
-        <v>0.009258612754516313</v>
+        <v>0.009787673945028844</v>
       </c>
       <c r="T13">
-        <v>0.009258612754516313</v>
+        <v>0.008826060381907088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N14">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O14">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P14">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q14">
-        <v>123660.0940745179</v>
+        <v>134573.3508616593</v>
       </c>
       <c r="R14">
-        <v>123660.0940745179</v>
+        <v>807440.1051699556</v>
       </c>
       <c r="S14">
-        <v>0.1383822877340275</v>
+        <v>0.1413656568961792</v>
       </c>
       <c r="T14">
-        <v>0.1383822877340275</v>
+        <v>0.1274768479928108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P15">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q15">
-        <v>24262.83466987262</v>
+        <v>26844.84592405958</v>
       </c>
       <c r="R15">
-        <v>24262.83466987262</v>
+        <v>241603.6133165363</v>
       </c>
       <c r="S15">
-        <v>0.02715141528605165</v>
+        <v>0.02819978289930953</v>
       </c>
       <c r="T15">
-        <v>0.02715141528605165</v>
+        <v>0.03814384112464067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N16">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O16">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P16">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q16">
-        <v>308.0018386540299</v>
+        <v>332.3819980959645</v>
       </c>
       <c r="R16">
-        <v>308.0018386540299</v>
+        <v>2991.43798286368</v>
       </c>
       <c r="S16">
-        <v>0.0003446706019287625</v>
+        <v>0.0003491582783697153</v>
       </c>
       <c r="T16">
-        <v>0.0003446706019287625</v>
+        <v>0.0004722815755370079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N17">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O17">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P17">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q17">
-        <v>157.3553779217272</v>
+        <v>185.5873515509067</v>
       </c>
       <c r="R17">
-        <v>157.3553779217272</v>
+        <v>1670.28616395816</v>
       </c>
       <c r="S17">
-        <v>0.0001760891203183082</v>
+        <v>0.0001949544816684115</v>
       </c>
       <c r="T17">
-        <v>0.0001760891203183082</v>
+        <v>0.0002637010647155952</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N18">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O18">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P18">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q18">
-        <v>81561.29951012087</v>
+        <v>87541.91947922698</v>
       </c>
       <c r="R18">
-        <v>81561.29951012087</v>
+        <v>787877.2753130429</v>
       </c>
       <c r="S18">
-        <v>0.09127147525837544</v>
+        <v>0.09196041321624825</v>
       </c>
       <c r="T18">
-        <v>0.09127147525837544</v>
+        <v>0.1243883119243009</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N19">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O19">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P19">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q19">
-        <v>18542.99512243976</v>
+        <v>19596.92730910087</v>
       </c>
       <c r="R19">
-        <v>18542.99512243976</v>
+        <v>117581.5638546052</v>
       </c>
       <c r="S19">
-        <v>0.02075060758839336</v>
+        <v>0.02058604088000755</v>
       </c>
       <c r="T19">
-        <v>0.02075060758839336</v>
+        <v>0.01856351579055578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N20">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O20">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P20">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q20">
-        <v>72371.75684544313</v>
+        <v>75734.70045209661</v>
       </c>
       <c r="R20">
-        <v>72371.75684544313</v>
+        <v>454408.2027125796</v>
       </c>
       <c r="S20">
-        <v>0.08098788339565825</v>
+        <v>0.07955724971322148</v>
       </c>
       <c r="T20">
-        <v>0.08098788339565825</v>
+        <v>0.07174095640404821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P21">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q21">
-        <v>14199.76253657928</v>
+        <v>15107.64465418819</v>
       </c>
       <c r="R21">
-        <v>14199.76253657928</v>
+        <v>135968.8018876938</v>
       </c>
       <c r="S21">
-        <v>0.01589029702587535</v>
+        <v>0.01587017115215371</v>
       </c>
       <c r="T21">
-        <v>0.01589029702587535</v>
+        <v>0.02146645203653069</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N22">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O22">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P22">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q22">
-        <v>180.2572959518086</v>
+        <v>187.056730773872</v>
       </c>
       <c r="R22">
-        <v>180.2572959518086</v>
+        <v>1683.510576964848</v>
       </c>
       <c r="S22">
-        <v>0.0002017175967821062</v>
+        <v>0.0001964980247083528</v>
       </c>
       <c r="T22">
-        <v>0.0002017175967821062</v>
+        <v>0.0002657889056289381</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N23">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O23">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P23">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q23">
-        <v>92.0918363721409</v>
+        <v>104.444174031564</v>
       </c>
       <c r="R23">
-        <v>92.0918363721409</v>
+        <v>939.9975662840759</v>
       </c>
       <c r="S23">
-        <v>0.0001030557116601018</v>
+        <v>0.0001097157734158605</v>
       </c>
       <c r="T23">
-        <v>0.0001030557116601018</v>
+        <v>0.0001484047251351047</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N24">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O24">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P24">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q24">
-        <v>47733.54395628896</v>
+        <v>49266.52272764155</v>
       </c>
       <c r="R24">
-        <v>47733.54395628896</v>
+        <v>443398.7045487739</v>
       </c>
       <c r="S24">
-        <v>0.05341639971859918</v>
+        <v>0.05175314654640022</v>
       </c>
       <c r="T24">
-        <v>0.05341639971859918</v>
+        <v>0.07000280131995169</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N25">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O25">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P25">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q25">
-        <v>10852.24092890276</v>
+        <v>11028.68740380837</v>
       </c>
       <c r="R25">
-        <v>10852.24092890276</v>
+        <v>66172.12442285022</v>
       </c>
       <c r="S25">
-        <v>0.01214424053306516</v>
+        <v>0.01158533713814343</v>
       </c>
       <c r="T25">
-        <v>0.01214424053306516</v>
+        <v>0.01044710783177843</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N26">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O26">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P26">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q26">
-        <v>74677.55370384787</v>
+        <v>78737.20401476504</v>
       </c>
       <c r="R26">
-        <v>74677.55370384787</v>
+        <v>472423.2240885902</v>
       </c>
       <c r="S26">
-        <v>0.08356819393726031</v>
+        <v>0.08271129831015411</v>
       </c>
       <c r="T26">
-        <v>0.08356819393726031</v>
+        <v>0.07458512791204329</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N27">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O27">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P27">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q27">
-        <v>14652.17338404372</v>
+        <v>15706.58749844517</v>
       </c>
       <c r="R27">
-        <v>14652.17338404372</v>
+        <v>141359.2874860065</v>
       </c>
       <c r="S27">
-        <v>0.01639656906566608</v>
+        <v>0.0164993443731482</v>
       </c>
       <c r="T27">
-        <v>0.01639656906566608</v>
+        <v>0.02231748991392088</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N28">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O28">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P28">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q28">
-        <v>186.0003748105662</v>
+        <v>194.4725982324738</v>
       </c>
       <c r="R28">
-        <v>186.0003748105662</v>
+        <v>1750.253384092264</v>
       </c>
       <c r="S28">
-        <v>0.0002081444105174483</v>
+        <v>0.0002042881924349329</v>
       </c>
       <c r="T28">
-        <v>0.0002081444105174483</v>
+        <v>0.0002763261115768694</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N29">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O29">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P29">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q29">
-        <v>95.02592387046002</v>
+        <v>108.5848651910687</v>
       </c>
       <c r="R29">
-        <v>95.02592387046002</v>
+        <v>977.2637867196181</v>
       </c>
       <c r="S29">
-        <v>0.0001063391131767183</v>
+        <v>0.0001140654572278458</v>
       </c>
       <c r="T29">
-        <v>0.0001063391131767183</v>
+        <v>0.000154288233134411</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N30">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O30">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P30">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q30">
-        <v>49254.35622467132</v>
+        <v>51219.6949079896</v>
       </c>
       <c r="R30">
-        <v>49254.35622467132</v>
+        <v>460977.2541719064</v>
       </c>
       <c r="S30">
-        <v>0.05511827033812101</v>
+        <v>0.05380490097280287</v>
       </c>
       <c r="T30">
-        <v>0.05511827033812101</v>
+        <v>0.0727780636383505</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N31">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O31">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P31">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q31">
-        <v>11197.99822610302</v>
+        <v>11465.9199144517</v>
       </c>
       <c r="R31">
-        <v>11197.99822610302</v>
+        <v>68795.51948671021</v>
       </c>
       <c r="S31">
-        <v>0.01253116152116076</v>
+        <v>0.01204463803752432</v>
       </c>
       <c r="T31">
-        <v>0.01253116152116076</v>
+        <v>0.01086128360982005</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N32">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O32">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P32">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q32">
-        <v>31287.08789059509</v>
+        <v>32907.78203648774</v>
       </c>
       <c r="R32">
-        <v>31287.08789059509</v>
+        <v>131631.128145951</v>
       </c>
       <c r="S32">
-        <v>0.03501193195136276</v>
+        <v>0.03456873292370224</v>
       </c>
       <c r="T32">
-        <v>0.03501193195136276</v>
+        <v>0.02078162975351793</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N33">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O33">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P33">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q33">
-        <v>6138.709876234111</v>
+        <v>6564.481993022409</v>
       </c>
       <c r="R33">
-        <v>6138.709876234111</v>
+        <v>39386.89195813446</v>
       </c>
       <c r="S33">
-        <v>0.006869546095418955</v>
+        <v>0.006895810375419155</v>
       </c>
       <c r="T33">
-        <v>0.006869546095418955</v>
+        <v>0.00621831490275001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N34">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O34">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P34">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q34">
-        <v>77.92716533618804</v>
+        <v>81.27875449455401</v>
       </c>
       <c r="R34">
-        <v>77.92716533618804</v>
+        <v>487.672526967324</v>
       </c>
       <c r="S34">
-        <v>8.720468390838517E-05</v>
+        <v>8.5381128189619E-05</v>
       </c>
       <c r="T34">
-        <v>8.720468390838517E-05</v>
+        <v>7.699265393486761E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N35">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O35">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P35">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q35">
-        <v>39.81229010005571</v>
+        <v>45.3824481181605</v>
       </c>
       <c r="R35">
-        <v>39.81229010005571</v>
+        <v>272.294688708963</v>
       </c>
       <c r="S35">
-        <v>4.455209115930766E-05</v>
+        <v>4.767303146352989E-05</v>
       </c>
       <c r="T35">
-        <v>4.455209115930766E-05</v>
+        <v>4.29892798481888E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N36">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O36">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P36">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q36">
-        <v>20635.72379871045</v>
+        <v>21406.99021635881</v>
       </c>
       <c r="R36">
-        <v>20635.72379871045</v>
+        <v>128441.9412981529</v>
       </c>
       <c r="S36">
-        <v>0.023092483389122</v>
+        <v>0.02248746289461556</v>
       </c>
       <c r="T36">
-        <v>0.023092483389122</v>
+        <v>0.02027812802699438</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N37">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O37">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P37">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q37">
-        <v>4691.540326671959</v>
+        <v>4792.118263709808</v>
       </c>
       <c r="R37">
-        <v>4691.540326671959</v>
+        <v>19168.47305483923</v>
       </c>
       <c r="S37">
-        <v>0.005250085634012918</v>
+        <v>0.005033990325245899</v>
       </c>
       <c r="T37">
-        <v>0.005250085634012918</v>
+        <v>0.003026275893679692</v>
       </c>
     </row>
   </sheetData>
